--- a/PySteelFraming.tab/traning.panel/traning.pushbutton/Create_Grids.xlsx
+++ b/PySteelFraming.tab/traning.panel/traning.pushbutton/Create_Grids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhuan Tom\AppData\Roaming\pyRevit-Master\extensions\PySteelFraming.extension\PySteelFraming.tab\traning.panel\traning.pushbutton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D5DA9E-D1D4-44AE-8955-5DA35BD9B608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D704B44-A0F5-4D2A-AF5A-A95A839AD4E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>X1</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Y11</t>
   </si>
   <si>
-    <t>Ky Hieu Truc (X)</t>
-  </si>
-  <si>
     <t>Khoang Cach (mm)</t>
   </si>
   <si>
@@ -95,16 +92,32 @@
   </si>
   <si>
     <t>Chiều dài tương ứng</t>
+  </si>
+  <si>
+    <t>(0,0,0)</t>
+  </si>
+  <si>
+    <t>Origin_Coord</t>
+  </si>
+  <si>
+    <t>Ky Hieu Truc (Phương đứng X)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,14 +139,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,16 +510,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" style="1" customWidth="1"/>
@@ -490,242 +528,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B13" s="3">
         <v>3000</v>
       </c>
-      <c r="F3" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C13" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3">
         <v>5000</v>
       </c>
-      <c r="F4" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F5" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4000</v>
-      </c>
-      <c r="F6" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>7000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F8" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F9" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4000</v>
-      </c>
-      <c r="F10" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="F13" s="3">
         <v>9000</v>
       </c>
     </row>

--- a/PySteelFraming.tab/traning.panel/traning.pushbutton/Create_Grids.xlsx
+++ b/PySteelFraming.tab/traning.panel/traning.pushbutton/Create_Grids.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhuan Tom\AppData\Roaming\pyRevit-Master\extensions\PySteelFraming.extension\PySteelFraming.tab\traning.panel\traning.pushbutton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D704B44-A0F5-4D2A-AF5A-A95A839AD4E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02591F46-1EBB-45C5-B5DC-C83397E18A7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>X1</t>
   </si>
@@ -91,16 +91,22 @@
     <t>X11</t>
   </si>
   <si>
-    <t>Chiều dài tương ứng</t>
-  </si>
-  <si>
     <t>(0,0,0)</t>
   </si>
   <si>
     <t>Origin_Coord</t>
   </si>
   <si>
-    <t>Ky Hieu Truc (Phương đứng X)</t>
+    <t>Ky Hieu Truc</t>
+  </si>
+  <si>
+    <t>Chieu_Dai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ky Hieu Truc </t>
+  </si>
+  <si>
+    <t>chieu dai</t>
   </si>
 </sst>
 </file>
@@ -513,7 +519,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -541,22 +547,22 @@
     </row>
     <row r="2" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -567,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -587,7 +593,8 @@
         <v>2000</v>
       </c>
       <c r="C4" s="3">
-        <v>9000</v>
+        <f>C3+1000</f>
+        <v>2000</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
@@ -607,7 +614,8 @@
         <v>4000</v>
       </c>
       <c r="C5" s="3">
-        <v>9000</v>
+        <f t="shared" ref="C5:C13" si="0">C4+1000</f>
+        <v>3000</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -627,7 +635,8 @@
         <v>3000</v>
       </c>
       <c r="C6" s="3">
-        <v>9000</v>
+        <f t="shared" si="0"/>
+        <v>4000</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -647,7 +656,8 @@
         <v>5000</v>
       </c>
       <c r="C7" s="3">
-        <v>9000</v>
+        <f t="shared" si="0"/>
+        <v>5000</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
@@ -667,7 +677,8 @@
         <v>7000</v>
       </c>
       <c r="C8" s="3">
-        <v>9000</v>
+        <f t="shared" si="0"/>
+        <v>6000</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>15</v>
@@ -687,7 +698,8 @@
         <v>3000</v>
       </c>
       <c r="C9" s="3">
-        <v>9000</v>
+        <f>C8+1000</f>
+        <v>7000</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>16</v>
@@ -707,7 +719,8 @@
         <v>4000</v>
       </c>
       <c r="C10" s="3">
-        <v>9000</v>
+        <f t="shared" si="0"/>
+        <v>8000</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -727,6 +740,7 @@
         <v>3000</v>
       </c>
       <c r="C11" s="3">
+        <f t="shared" si="0"/>
         <v>9000</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -747,7 +761,8 @@
         <v>5000</v>
       </c>
       <c r="C12" s="3">
-        <v>9000</v>
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -767,7 +782,8 @@
         <v>3000</v>
       </c>
       <c r="C13" s="3">
-        <v>9000</v>
+        <f t="shared" si="0"/>
+        <v>11000</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>20</v>

--- a/PySteelFraming.tab/traning.panel/traning.pushbutton/Create_Grids.xlsx
+++ b/PySteelFraming.tab/traning.panel/traning.pushbutton/Create_Grids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhuan Tom\AppData\Roaming\pyRevit-Master\extensions\PySteelFraming.extension\PySteelFraming.tab\traning.panel\traning.pushbutton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02591F46-1EBB-45C5-B5DC-C83397E18A7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0273ACD5-0A6A-4238-BE48-B7668703BC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>X1</t>
   </si>
@@ -91,12 +91,6 @@
     <t>X11</t>
   </si>
   <si>
-    <t>(0,0,0)</t>
-  </si>
-  <si>
-    <t>Origin_Coord</t>
-  </si>
-  <si>
     <t>Ky Hieu Truc</t>
   </si>
   <si>
@@ -107,6 +101,18 @@
   </si>
   <si>
     <t>chieu dai</t>
+  </si>
+  <si>
+    <t>Origin_Coordx</t>
+  </si>
+  <si>
+    <t>Origin_Coordy</t>
+  </si>
+  <si>
+    <t>(10,0,0)</t>
+  </si>
+  <si>
+    <t>(0,10,0)</t>
   </si>
 </sst>
 </file>
@@ -519,7 +525,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,34 +541,38 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -573,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -582,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>9000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -593,8 +603,7 @@
         <v>2000</v>
       </c>
       <c r="C4" s="3">
-        <f>C3+1000</f>
-        <v>2000</v>
+        <v>50000</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
@@ -603,7 +612,7 @@
         <v>3000</v>
       </c>
       <c r="F4" s="3">
-        <v>9000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -614,8 +623,7 @@
         <v>4000</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:C13" si="0">C4+1000</f>
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -624,7 +632,7 @@
         <v>5000</v>
       </c>
       <c r="F5" s="3">
-        <v>9000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -635,8 +643,7 @@
         <v>3000</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>50000</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -645,7 +652,7 @@
         <v>2000</v>
       </c>
       <c r="F6" s="3">
-        <v>9000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -656,8 +663,7 @@
         <v>5000</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
@@ -666,7 +672,7 @@
         <v>4000</v>
       </c>
       <c r="F7" s="3">
-        <v>9000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -677,8 +683,7 @@
         <v>7000</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>50000</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>15</v>
@@ -687,7 +692,7 @@
         <v>4000</v>
       </c>
       <c r="F8" s="3">
-        <v>9000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -698,8 +703,7 @@
         <v>3000</v>
       </c>
       <c r="C9" s="3">
-        <f>C8+1000</f>
-        <v>7000</v>
+        <v>50000</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>16</v>
@@ -708,7 +712,7 @@
         <v>3000</v>
       </c>
       <c r="F9" s="3">
-        <v>9000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -719,8 +723,7 @@
         <v>4000</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>50000</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -729,7 +732,7 @@
         <v>5000</v>
       </c>
       <c r="F10" s="3">
-        <v>9000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -740,8 +743,7 @@
         <v>3000</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>50000</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>18</v>
@@ -750,7 +752,7 @@
         <v>4000</v>
       </c>
       <c r="F11" s="3">
-        <v>9000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -761,8 +763,7 @@
         <v>5000</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -771,7 +772,7 @@
         <v>3000</v>
       </c>
       <c r="F12" s="3">
-        <v>9000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -782,8 +783,7 @@
         <v>3000</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>50000</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>20</v>
@@ -792,7 +792,7 @@
         <v>5000</v>
       </c>
       <c r="F13" s="3">
-        <v>9000</v>
+        <v>50000</v>
       </c>
     </row>
   </sheetData>

--- a/PySteelFraming.tab/traning.panel/traning.pushbutton/Create_Grids.xlsx
+++ b/PySteelFraming.tab/traning.panel/traning.pushbutton/Create_Grids.xlsx
@@ -8,34 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhuan Tom\AppData\Roaming\pyRevit-Master\extensions\PySteelFraming.extension\PySteelFraming.tab\traning.panel\traning.pushbutton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0273ACD5-0A6A-4238-BE48-B7668703BC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFA6F1A-227D-48BE-A4C6-CF4BB874A129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>X4</t>
-  </si>
-  <si>
-    <t>X5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Y1</t>
   </si>
@@ -43,54 +29,9 @@
     <t>Y2</t>
   </si>
   <si>
-    <t>Y3</t>
-  </si>
-  <si>
-    <t>Y4</t>
-  </si>
-  <si>
-    <t>Y5</t>
-  </si>
-  <si>
-    <t>X6</t>
-  </si>
-  <si>
-    <t>X7</t>
-  </si>
-  <si>
-    <t>X8</t>
-  </si>
-  <si>
-    <t>X9</t>
-  </si>
-  <si>
-    <t>X10</t>
-  </si>
-  <si>
-    <t>Y6</t>
-  </si>
-  <si>
-    <t>Y7</t>
-  </si>
-  <si>
-    <t>Y8</t>
-  </si>
-  <si>
-    <t>Y9</t>
-  </si>
-  <si>
-    <t>Y10</t>
-  </si>
-  <si>
-    <t>Y11</t>
-  </si>
-  <si>
     <t>Khoang Cach (mm)</t>
   </si>
   <si>
-    <t>X11</t>
-  </si>
-  <si>
     <t>Ky Hieu Truc</t>
   </si>
   <si>
@@ -113,13 +54,40 @@
   </si>
   <si>
     <t>(0,10,0)</t>
+  </si>
+  <si>
+    <t>A6a</t>
+  </si>
+  <si>
+    <t>A7a</t>
+  </si>
+  <si>
+    <t>A8a</t>
+  </si>
+  <si>
+    <t>A9a</t>
+  </si>
+  <si>
+    <t>A1a''</t>
+  </si>
+  <si>
+    <t>A2ad</t>
+  </si>
+  <si>
+    <t>A3ak</t>
+  </si>
+  <si>
+    <t>A4aa</t>
+  </si>
+  <si>
+    <t>A5am</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +98,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -525,278 +499,226 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="G12" activeCellId="1" sqref="F15 G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>50000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
         <v>2000</v>
       </c>
       <c r="C4" s="3">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
         <v>3000</v>
       </c>
       <c r="F4" s="3">
-        <v>50000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
         <v>4000</v>
       </c>
       <c r="C5" s="3">
-        <v>50000</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F5" s="3">
-        <v>50000</v>
-      </c>
+        <v>45000</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <v>3000</v>
       </c>
       <c r="C6" s="3">
-        <v>50000</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F6" s="3">
-        <v>50000</v>
-      </c>
+        <v>45000</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
         <v>5000</v>
       </c>
       <c r="C7" s="3">
-        <v>50000</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F7" s="3">
-        <v>50000</v>
-      </c>
+        <v>45000</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>7000</v>
       </c>
       <c r="C8" s="3">
-        <v>50000</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>50000</v>
-      </c>
+        <v>45000</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3">
         <v>3000</v>
       </c>
       <c r="C9" s="3">
-        <v>50000</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>50000</v>
-      </c>
+        <v>45000</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>4000</v>
       </c>
       <c r="C10" s="3">
-        <v>50000</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>50000</v>
-      </c>
+        <v>45000</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3">
         <v>3000</v>
       </c>
       <c r="C11" s="3">
-        <v>50000</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F11" s="3">
-        <v>50000</v>
-      </c>
+        <v>45000</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C12" s="3">
-        <v>50000</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>50000</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3000</v>
-      </c>
-      <c r="C13" s="3">
-        <v>50000</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F13" s="3">
-        <v>50000</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FBE73A-5958-404B-8CDB-A7FF5A185FE4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>